--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2129.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2129.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.847493588924408</v>
       </c>
       <c r="B1">
-        <v>2.103975454887527</v>
+        <v>2.282288074493408</v>
       </c>
       <c r="C1">
-        <v>1.16333697396872</v>
+        <v>3.405540704727173</v>
       </c>
       <c r="D1">
-        <v>0.9384379822386202</v>
+        <v>1.661390066146851</v>
       </c>
       <c r="E1">
-        <v>0.8694064587001556</v>
+        <v>1.206437826156616</v>
       </c>
     </row>
   </sheetData>
